--- a/db/uploads/rates.xlsx
+++ b/db/uploads/rates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>minAge</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>coop_comm_rate</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>LPPI</t>
+  </si>
+  <si>
+    <t>GYRT</t>
   </si>
 </sst>
 </file>
@@ -373,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +394,7 @@
     <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +413,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
@@ -424,8 +436,11 @@
       <c r="F2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>66</v>
       </c>
@@ -444,8 +459,11 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>66</v>
       </c>
@@ -464,8 +482,11 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>71</v>
       </c>
@@ -484,8 +505,11 @@
       <c r="F5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71</v>
       </c>
@@ -504,8 +528,11 @@
       <c r="F6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>76</v>
       </c>
@@ -524,8 +551,11 @@
       <c r="F7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>76</v>
       </c>
@@ -544,8 +574,11 @@
       <c r="F8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>81</v>
       </c>
@@ -563,6 +596,32 @@
       </c>
       <c r="F9">
         <v>0.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
